--- a/test_videos_with_labels/done/GX010103_labels.xlsx
+++ b/test_videos_with_labels/done/GX010103_labels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\Programmierung\Master\Machine Vision\Computer-Robot_Vision_repo\test_video_results_augmented_mobile\tests\GX010103\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\Programmierung\Master\Machine Vision\Computer-Robot_Vision_repo\test_videos_with_labels\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E395DA2-4311-417B-B1B1-7D42A9914202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C705CC0-57C6-4D2E-B2EC-945793604582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="3015" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="2250" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A815" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L833" sqref="L833"/>
+    <sheetView tabSelected="1" topLeftCell="A741" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D755" sqref="D755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,7 +2252,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -2260,7 +2260,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -2284,7 +2284,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
